--- a/Final Deliverables/ROI.xlsx
+++ b/Final Deliverables/ROI.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixuanchen/Desktop/ESWD/Dillards POS/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F79A2DB-2E36-0F41-B725-D922AD02B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E9EFB-C9A4-C642-B1BD-815AEB8234B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{85412322-B9D1-A94B-B1C8-C0D4325F9BD0}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="37640" windowHeight="21100" activeTab="2" xr2:uid="{85412322-B9D1-A94B-B1C8-C0D4325F9BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimistic" sheetId="1" r:id="rId1"/>
     <sheet name="Neutral" sheetId="2" r:id="rId2"/>
     <sheet name="Pessimistic" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Result" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,10 +251,31 @@
     <t>We Assume our recommendation system will increase success rate of the current brand-based recommendation system by 10% again.</t>
   </si>
   <si>
-    <t>Assumes with our model, the sales reps' success rate improves by 10% (2.4 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 10% is under the neutral assumption. Actual rate can be calculated from an A/B test.</t>
-  </si>
-  <si>
-    <t>Assumes with our model, the sales reps' success rate improves by 20% (2.4 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 20% is under the bull (optimistic) assumption. Actual rate can be calculated from an A/B test</t>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>*Assumes 10 -people team work for 4 weeks to create content for sales-rep training on how to use the recommendation system at offline stores</t>
+  </si>
+  <si>
+    <t>*Assumes 4 FTE developers needed to implement offline-store application and app changes in online store.</t>
+  </si>
+  <si>
+    <t>Full-Stack Engineer</t>
   </si>
   <si>
     <r>
@@ -279,35 +300,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (2.4 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 1% is under the bear (pessimistic) assumption. Actual rate can be calculated from an A/B test.</t>
+      <t xml:space="preserve"> (3.03 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 1% is under the bear (pessimistic) assumption. Actual rate can be calculated from an A/B test.</t>
     </r>
   </si>
   <si>
-    <t>Optimistic</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Pessimistic</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>*Assumes 10 -people team work for 4 weeks to create content for sales-rep training on how to use the recommendation system at offline stores</t>
-  </si>
-  <si>
-    <t>*Assumes 4 FTE developers needed to implement offline-store application and app changes in online store.</t>
-  </si>
-  <si>
-    <t>Full-Stack Engineer</t>
+    <t>Assumes with our model, the sales reps' success rate improves by 20% (3.6 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 20% is under the bull (optimistic) assumption. Actual rate can be calculated from an A/B test</t>
+  </si>
+  <si>
+    <t>Assumes with our model, the sales reps' success rate improves by 10% (3.3 in 100 customers accepts recommendation). We believe having more information is unlikely to decrease a sales reps success rate. An improvement of 10% is under the neutral assumption. Actual rate can be calculated from an A/B test.</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -438,7 +438,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -481,10 +481,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -494,15 +495,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ROI Under 3 Risk</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Assumptions</a:t>
+              <a:t>ROI Under 3 Risk Assumptions</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26412610512078238"/>
+          <c:y val="2.2144361308295842E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -516,10 +521,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -542,24 +548,105 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.2108078432388169E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E6AE-7C4D-BF4C-ECF27CD661AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0861795858949182E-3"/>
+                  <c:y val="-3.2108078432389617E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E6AE-7C4D-BF4C-ECF27CD661AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.2978917272751281E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E6AE-7C4D-BF4C-ECF27CD661AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -576,8 +663,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -603,11 +691,11 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -617,7 +705,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:f>Result!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -634,7 +722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>Result!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -665,8 +753,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
         <c:axId val="1866847248"/>
         <c:axId val="304584224"/>
       </c:barChart>
@@ -677,39 +765,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -720,8 +789,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -752,15 +822,15 @@
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
@@ -789,8 +859,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -826,14 +897,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -861,13 +929,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -901,30 +966,43 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -933,14 +1011,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -955,8 +1030,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -966,16 +1042,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
@@ -985,90 +1058,97 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -1078,30 +1158,48 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
+            <a:shade val="95000"/>
           </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1125,16 +1223,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1146,22 +1245,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1175,11 +1274,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1191,10 +1290,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1221,15 +1321,15 @@
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1251,17 +1351,15 @@
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1281,11 +1379,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1299,11 +1397,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1312,13 +1410,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1326,7 +1425,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1339,10 +1438,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1355,8 +1468,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1368,11 +1482,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1381,14 +1496,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1398,8 +1511,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1413,17 +1527,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1432,8 +1544,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1453,16 +1566,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>421784</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>192954</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304192</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41874</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9465</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446853</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23519</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1789,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB9138-ED94-8E4A-8334-D09E799BE9B8}">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2002,7 +2115,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2286,12 +2399,12 @@
         <v>260000</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="11">
         <v>150000</v>
@@ -2326,7 +2439,7 @@
         <v>46027.397260273974</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2419,7 +2532,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B47" s="13">
         <f>K6+K17-B35-B40-A44</f>
@@ -2428,7 +2541,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="8">
         <f>(K6+K17)/(B35+B40)</f>
@@ -2453,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4CC73F-97DE-FA4A-8A31-503FF64C9823}">
   <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F49"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2779,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2950,12 +3063,12 @@
         <v>260000</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="11">
         <v>150000</v>
@@ -2990,7 +3103,7 @@
         <v>46027.397260273974</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3083,7 +3196,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46" s="13">
         <f>K6+K17-B35-B39-A43</f>
@@ -3092,7 +3205,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47" s="8">
         <f>(K6+K17)/(B35+B39)</f>
@@ -3117,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188D9599-0035-6244-A5D1-D9363D277D5C}">
   <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,7 +3311,7 @@
         <f>C6*(1+D6)^(2022-2004)</f>
         <v>265752274.98344621</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>0.03</v>
       </c>
       <c r="G6">
@@ -3242,7 +3355,7 @@
         <f>C7*(1+D7)^(2022-2004)</f>
         <v>265752274.98344621</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <f>F6*1.01</f>
         <v>3.0300000000000001E-2</v>
       </c>
@@ -3330,7 +3443,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3614,12 +3727,12 @@
         <v>260000</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="11">
         <v>150000</v>
@@ -3654,7 +3767,7 @@
         <v>46027.397260273974</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3747,7 +3860,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46" s="13">
         <f>K6+K17-B35-B39-A43</f>
@@ -3756,7 +3869,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47" s="8">
         <f>(K6+K17)/(B35+B39)</f>
@@ -3782,7 +3895,7 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3793,18 +3906,18 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="17">
         <f>Optimistic!B47</f>
